--- a/me-docs/13.Xay-dung-chuc-nang-Change-status.xlsx
+++ b/me-docs/13.Xay-dung-chuc-nang-Change-status.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F775022-D56C-458E-8AFC-B9AF2A06A089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DA89FF-4BA9-4157-88E7-5FDB9D15A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="change status" sheetId="1" r:id="rId1"/>
+    <sheet name="notify" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -37,6 +38,15 @@
   </si>
   <si>
     <t>Result</t>
+  </si>
+  <si>
+    <t>app\Http\Controllers\SliderController.php</t>
+  </si>
+  <si>
+    <t>resources\views\admin\pages\slider\index.blade.php</t>
+  </si>
+  <si>
+    <t>views\admin\templates\zvn_notify.blade.php</t>
   </si>
 </sst>
 </file>
@@ -261,6 +271,231 @@
         <a:xfrm>
           <a:off x="609600" y="15811500"/>
           <a:ext cx="11382375" cy="5779001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>570057</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>56571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{282C926D-824D-4D97-B342-0A2FFBC668B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="11542857" cy="4628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103543</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9429B51-3379-45C4-A94B-B7371DBB8620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5524500"/>
+          <a:ext cx="9857143" cy="4676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198552</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>142524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48860E28-17E5-4519-A627-D2757410FFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10668000"/>
+          <a:ext cx="11780952" cy="2809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>134461</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D58FBA-6E23-41E7-8A00-C1E430CE128B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="13906500"/>
+          <a:ext cx="11820525" cy="5277961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>84114</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>94646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC9BD378-EE8C-4F79-AAFB-ABF451479F65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="19650075"/>
+          <a:ext cx="12885714" cy="4828571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -537,7 +772,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
@@ -567,4 +802,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481EB7A-FD53-4343-BE84-3ABB67E88484}">
+  <dimension ref="A2:B103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/me-docs/13.Xay-dung-chuc-nang-Change-status.xlsx
+++ b/me-docs/13.Xay-dung-chuc-nang-Change-status.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\proj_news\me-docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DA89FF-4BA9-4157-88E7-5FDB9D15A555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EE6890-71B9-4352-8F04-05542B82D576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="change status" sheetId="1" r:id="rId1"/>
     <sheet name="notify" sheetId="2" r:id="rId2"/>
+    <sheet name="Localization" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Controllers\SliderController.php</t>
   </si>
@@ -47,6 +48,12 @@
   </si>
   <si>
     <t>views\admin\templates\zvn_notify.blade.php</t>
+  </si>
+  <si>
+    <t>config\app.php</t>
+  </si>
+  <si>
+    <t>resources\lang\en\notify.php</t>
   </si>
 </sst>
 </file>
@@ -496,6 +503,231 @@
         <a:xfrm>
           <a:off x="609600" y="19650075"/>
           <a:ext cx="12885714" cy="4828571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>84571</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7857913-E930-4308-ACB0-74E73B1AE356}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="381000"/>
+          <a:ext cx="9228571" cy="3800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>163908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1204796E-6753-4ABE-9622-442F14D41997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11239500"/>
+          <a:ext cx="11887200" cy="5307408"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>595868</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC74282C-EE8E-4437-AEB6-62C8BB421CEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="16954500"/>
+          <a:ext cx="11568668" cy="5724525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>313371</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142690</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E58F872-0E91-4BD3-A433-2F21EE70C041}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4572000"/>
+          <a:ext cx="7628571" cy="1476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>341486</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82812E82-0AF2-4531-8ED2-9AD6AB86476B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6477000"/>
+          <a:ext cx="11314286" cy="2923809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -808,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481EB7A-FD53-4343-BE84-3ABB67E88484}">
   <dimension ref="A2:B103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
@@ -843,4 +1075,45 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF895A75-0ECC-41E0-8777-0C9CE028F1FD}">
+  <dimension ref="A2:B82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>